--- a/outputs/FIJI2.xlsx
+++ b/outputs/FIJI2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to complete the course and would naturally think that accessing the syllabus is an important step to understand the course requirements and plan their term. The syllabus typically contains essential information about course structure, grading, and assignments, which aligns with Abi's comprehensive information processing style. The presence of direct instructions on the page enhances this motivation.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane and even highlights this in the introductory text. This direct and explicit instruction aligns with Abi's comprehensive information processing style, as they prefer step-by-step guidance. Additionally, Abi's motivation to complete the course and plan their term will drive them to follow these clear instructions.</t>
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The text explicitly instructs the user to click on "Syllabus" in the left pane, making it straightforward for Abi to know what to do. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they are likely to follow clear instructions to gather necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon landing on the "Course Syllabus" page, Abi will see a detailed weekly schedule and various syllabus-related links, which provides a comprehensive overview of the course. This aligns with Abi's motivation to complete the course and plan their term, as well as their preference for comprehensive information. The presented schedule and links offer clear, structured information that will help Abi understand what is due each week and the expectations for the course.</t>
+Why: Upon landing on the Syllabus page, Abi will see a detailed weekly schedule and various links to important documents and policies. This comprehensive layout provides all the necessary information to understand the course structure and requirements. Abi's motivation to plan their term and their comprehensive information processing style will be satisfied by the detailed and organized presentation of the syllabus, confirming that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi's goal is to plan their term effectively, which requires understanding the activities and deadlines. The summary of activities and deadlines is crucial for this purpose. Given Abi's motivations to complete the course and their comprehensive information processing style, they would naturally consider finding this summary as an important step. The page labeled "Syllabus – Weekly schedule" clearly lists the activities and deadlines, making it evident that this is the necessary information to achieve their goal.</t>
+Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving their overall goal of planning the term.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the "Syllabus – Weekly schedule" under "Course Summary," which indicates that it contains a summary of activities and deadlines. This matches Abi's goal of planning their term by understanding the course requirements. The structured presentation of information aligns with Abi's comprehensive information processing style. The clear labeling and structured format make it evident what Abi needs to do at this step. Scrolling down to read the "Course Summary" is a straightforward action that Abi will recognize as necessary to gather the detailed information they need.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page is well-organized and clearly labeled, with a "Course Summary" section that is easy to locate. Abi's comprehensive information processing style and preference for process-oriented learning will guide them to scroll down and read through the "Course Summary" to gather the necessary information about activities and deadlines. The layout and labeling make it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will find a detailed "Syllabus – Weekly schedule" that lists all the readings, projects, and deadlines for each week. This clear and detailed information will confirm to Abi that they are making progress toward their goal of planning their term. The structured presentation of tasks and deadlines aligns with Abi's comprehensive information processing style and provides the necessary details to plan effectively, thus ensuring that Abi knows they did the right thing and are on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the "Syllabus – Weekly schedule" provides a detailed list of activities and deadlines, it may not be immediately clear to Abi that this is the complete summary of activities and deadlines they need. The page also contains multiple links and sections, which could be overwhelming and confusing for someone with low computer self-efficacy. Abi might not be confident that they have found all the necessary information just by scrolling down and reading this section, as they might expect a more explicit summary or a dedicated section for deadlines and activities.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To effectively plan their term and complete the course, Abi will need to know what tools are required so they can get everything set up in advance. This is a logical part of understanding the course requirements and preparing to complete assignments and projects. Given Abi's motivation to plan and their comprehensive information processing style, they would naturally think of finding the list of tools to be installed/setup as a necessary step. Additionally, the page provides a link labeled "Tools," making it clear where Abi can find this information.</t>
+Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in preparing for the coursework, and given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of required tools as an essential step toward achieving their overall goal of planning their term.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan their term and would recognize the need to find out what tools are required for the course. The "Tools" tab is prominently displayed at the top of the page, making it clear and accessible. This aligns with Abi's comprehensive information processing style, as they prefer clear, step-by-step instructions and links. The label "Tools" is straightforward and indicates that it will provide the necessary information about the tools to be installed/setup for the course.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Tools" tab is clearly labeled and positioned at the top of the page, making it easy to identify. Abi's comprehensive information processing style and preference for process-oriented learning will guide them to click on the "Tools" tab to find the necessary information about the tools required for the course. The page layout and labeling provide clear guidance on what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi is presented with a detailed list of tools that need to be installed or set up for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. This comprehensive list aligns with Abi's motivation to plan their term and complete the course effectively. The page provides specific information and instructions for each tool, which matches Abi's comprehensive information processing style. The detailed descriptions and setup instructions will confirm to Abi that they did the right thing and are making progress toward their goal.</t>
+Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The information is organized and comprehensive, which aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style. Abi will know they are making progress toward their goal as the page provides all the necessary information about the tools to be installed and set up for the course.</t>
         </is>
       </c>
     </row>

--- a/outputs/FIJI2.xlsx
+++ b/outputs/FIJI2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that finding the syllabus is an essential step toward planning her term and understanding what needs to be done to complete the course.</t>
+Why: The syllabus is a crucial document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would likely consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out detailed information about the course, which the syllabus provides. The page explicitly mentions the importance of reading the syllabus, reinforcing this subgoal.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will recognize the importance of accessing the syllabus to plan her term effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly indicates that the syllabus is an important document to read, and it provides explicit instructions to click on "Syllabus" in the left pane. This aligns with Abi's motivation to complete tasks and gather comprehensive information. The clear labeling and instructions also support Abi's lower computer self-efficacy by providing straightforward guidance on what to do next. The presence of the "Syllabus" link in the left pane makes it easy for Abi to identify and take the necessary action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that she is in the right place. The page provides a detailed weekly schedule, which is essential for planning the term. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will have access to all the necessary information to understand what needs to be done to complete the course.</t>
+Why: Upon landing on the syllabus page, Abi will see a detailed weekly schedule and various links to important documents and resources, such as the syllabus PDF and schedule of assignments. This comprehensive information aligns with Abi's motivation to plan their term and gather all necessary details. The clear presentation of the weekly schedule and due dates will help Abi understand that they are making progress toward their goal of figuring out what to do to complete the course. The page provides all the information needed in a structured and accessible manner, supporting Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan her term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing her time. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would consider finding the summary of activities and deadlines as a necessary step toward achieving her overall goal of completing the course.</t>
+Why: To plan their term effectively, Abi would need to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving their overall goal. The syllabus page, which includes a weekly schedule and due dates, directly supports this subgoal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly labeled "Course Syllabus" and includes a section titled "Course Summary," which is prominently displayed. This aligns with Abi's motivation to find the summary of activities and deadlines. Additionally, the page layout and headings make it straightforward for Abi to understand that she needs to scroll down to read through the "Course Summary." This aligns with her comprehensive information processing style, as she will recognize that this section contains the detailed information she needs to plan her term.</t>
+Why: The page clearly labels the "Course Summary" section and provides a detailed weekly schedule of activities and deadlines. This aligns with Abi's motivation to plan their term and gather comprehensive information. The layout and labeling make it straightforward for Abi to understand that they need to scroll down to find the summary of activities and deadlines. The information is presented in a structured and accessible manner, supporting Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines for the course. This information is clearly presented and directly relevant to her goal of planning her term. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi will recognize that she has found the necessary information and is making progress toward her goal. The detailed schedule provides all the information she needs to understand the course requirements and deadlines.</t>
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that lists the activities and deadlines. This clear and structured presentation of information will help Abi understand that they are making progress toward their goal of planning their term. The detailed schedule provides all the necessary information about what is due and when, which aligns with Abi's motivation to complete tasks and their comprehensive information processing style. The page effectively communicates that Abi is on the right track and has found the information they need.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in ensuring she can participate in all course activities and complete assignments. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would recognize that finding a list of required tools is essential for planning her term and being prepared for the coursework.</t>
+Why: To effectively complete the course and plan their term, Abi would need to know what tools are required for the course. This information is essential for preparing and ensuring they have everything set up in advance. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding a list of tools to be installed or set up as a necessary step toward achieving their overall goal. The "Tools" link on the syllabus page suggests that this information is available and relevant, reinforcing this subgoal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi will recognize that clicking on the "Tools" tab is a logical step to find the list of tools needed for the course. The page layout and clear labeling provide sufficient guidance for her to take this action confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Tools" tab is clearly labeled and positioned prominently at the top of the page, making it easy for Abi to identify. Given Abi's motivation to complete tasks and gather comprehensive information, they would recognize that clicking on the "Tools" tab is a necessary step to find the list of tools required for the course. The clear labeling and straightforward navigation support Abi's lower computer self-efficacy by providing a clear and direct action to take. The page is well-organized and provides sufficient guidance for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page is well-organized and lists the tools along with descriptions and links for further information or installation instructions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will recognize that she has found the necessary information and is making progress toward her goal of planning her term and setting up the required tools.</t>
+Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to access or set it up. This comprehensive information aligns with Abi's motivation to gather all necessary details to complete the course and plan their term. The structured and detailed presentation of the tools supports Abi's comprehensive information processing style, ensuring they know they are making progress toward their goal and have all the information they need.</t>
         </is>
       </c>
     </row>
